--- a/test/自作アプリ.xlsx
+++ b/test/自作アプリ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\秋山温斗\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBC35A2-7B29-4651-8978-829FCADF960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5B74A6-2DA6-44D1-A77E-203B7BC4C5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{31EA4E7F-AC2C-47EE-9CA7-1EE33446B152}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{31EA4E7F-AC2C-47EE-9CA7-1EE33446B152}"/>
   </bookViews>
   <sheets>
     <sheet name="マトリクス表機能要件" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -396,19 +396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品更新が完了したことを確認する</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンコウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5.更新画面</t>
     <rPh sb="2" eb="6">
       <t>コウシンガメン</t>
@@ -471,22 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品削除が完了したことを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7.削除画面</t>
     <rPh sb="2" eb="6">
       <t>サクジョガメン</t>
@@ -514,28 +485,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫商品の「検索」「更新」「削除」「登録」「ログアウト」ボタンを表示</t>
-    <rPh sb="0" eb="4">
-      <t>ザイコショウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログアウト画面</t>
     <rPh sb="5" eb="7">
       <t>ガメン</t>
@@ -559,22 +508,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品登録が完了したことを確認する</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>9.登録画面</t>
     <rPh sb="2" eb="6">
       <t>トウロクガメン</t>
@@ -716,6 +649,243 @@
     <t>ログイン画面へ</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザを登録する</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ユーザーを編集する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録ユーザーを削除する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザID
+・ユーザパスワード
+・ユーザ属性</t>
+    <rPh sb="21" eb="23">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.メニュー画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録・更新結果画面</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ケッカガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ削除結果画面</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除した商品情報を表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除したユーザ情報を表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの「登録・更新」「削除」ボタンを表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫商品の「検索」「更新」「削除」「登録」「ログアウト」「ユーザ設定]ボタンを表示</t>
+    <rPh sb="0" eb="4">
+      <t>ザイコショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録・更新したユーザ名、管理番号を表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>カンリバンゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品登録が完了したことを確認する（登録した商品情報を表示）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品更新が完了したことを確認する（更新した商品情報を表示）</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンコウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ設定画面</t>
+    <rPh sb="3" eb="7">
+      <t>セッテイガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ編集</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ削除</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.ユーザ設定画面</t>
+    <rPh sb="6" eb="10">
+      <t>セッテイガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,23 +991,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>498070</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>180109</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>643758</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C8ECB0-3198-CB98-8ED3-27DE08ACB9DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8C5A7C-FF16-23E7-2329-1C2513BAFE7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -859,8 +1029,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3158143" y="1648691"/>
-          <a:ext cx="5694911" cy="7245927"/>
+          <a:off x="1340069" y="1563413"/>
+          <a:ext cx="8684172" cy="7055069"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C12D594-F0CE-42C1-87A4-7D7F5E6E0819}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1295,39 +1465,93 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="36" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1337,17 +1561,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69646B75-E7B4-4F98-989E-ECDDB4B6801D}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="85.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="66.3984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1393,7 +1617,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
@@ -1416,7 +1640,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1433,7 +1657,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -1450,7 +1674,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -1461,13 +1685,13 @@
         <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -1475,16 +1699,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1492,16 +1716,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -1509,16 +1733,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1526,16 +1750,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1543,16 +1767,67 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D2431D-4FBE-47F7-ABB8-F8BFEB0074CF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="58" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
